--- a/Costos e Inversiones.xlsx
+++ b/Costos e Inversiones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quique/Google Drive/AXON/Proyectos/Corredor Interoceanico/Actualizacion Factibilidad/Libro/Informacion de Apoyo/Modelo Jordi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quique/Google Drive/AXON/Proyectos/Corredor Interoceanico/Actualizacion Factibilidad/Libro/Informacion de Apoyo/Modelo/Intermodal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,18 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Puertos</t>
   </si>
   <si>
-    <t>FF.CC.</t>
-  </si>
-  <si>
     <t>Costos Operación</t>
-  </si>
-  <si>
-    <t>Puertos - mantenimiento</t>
   </si>
   <si>
     <t>Inversiones con Inflación (000)</t>
@@ -110,6 +104,27 @@
   </si>
   <si>
     <t>Las inversiones estan inflacionadas con una tasa de 5%</t>
+  </si>
+  <si>
+    <t>Mantenimiento Infraestructuras</t>
+  </si>
+  <si>
+    <t>Mantenimiento Superestructuras</t>
+  </si>
+  <si>
+    <t>Explotación (personal)</t>
+  </si>
+  <si>
+    <t>Explotación (consumos y otros gastos operativos)</t>
+  </si>
+  <si>
+    <t>Explotación (personal, consumos y otros gastos)</t>
+  </si>
+  <si>
+    <t>Reposición</t>
+  </si>
+  <si>
+    <t>Explotación </t>
   </si>
 </sst>
 </file>
@@ -424,331 +439,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX4"/>
+  <dimension ref="A1:DG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DA28" sqref="DA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>2012</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2013</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2014</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2015</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2016</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2017</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2018</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2019</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2020</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2021</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2022</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2023</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2024</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2025</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2026</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2027</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2028</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2029</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2030</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2031</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2032</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2033</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2034</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2035</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2036</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2037</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2038</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2039</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2040</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2041</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2042</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2043</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2044</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>2045</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>2046</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>2047</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>2048</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>2049</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>2050</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>2051</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>2052</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>2053</v>
       </c>
-      <c r="AR1">
+      <c r="AS1">
         <v>2054</v>
       </c>
-      <c r="AS1">
+      <c r="AT1">
         <v>2055</v>
       </c>
-      <c r="AT1">
+      <c r="AU1">
         <v>2056</v>
       </c>
-      <c r="AU1">
+      <c r="AV1">
         <v>2057</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>2058</v>
       </c>
-      <c r="AW1">
+      <c r="AX1">
         <v>2059</v>
       </c>
-      <c r="AX1">
+      <c r="AY1">
         <v>2060</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1">
         <v>2061</v>
       </c>
-      <c r="AZ1">
+      <c r="BA1">
         <v>2062</v>
       </c>
-      <c r="BA1">
+      <c r="BB1">
         <v>2063</v>
       </c>
-      <c r="BB1">
+      <c r="BC1">
         <v>2064</v>
       </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>2065</v>
       </c>
-      <c r="BD1">
+      <c r="BE1">
         <v>2066</v>
       </c>
-      <c r="BE1">
+      <c r="BF1">
         <v>2067</v>
       </c>
-      <c r="BF1">
+      <c r="BG1">
         <v>2068</v>
       </c>
-      <c r="BG1">
+      <c r="BH1">
         <v>2069</v>
       </c>
-      <c r="BH1">
+      <c r="BI1">
         <v>2070</v>
       </c>
-      <c r="BI1">
+      <c r="BJ1">
         <v>2071</v>
       </c>
-      <c r="BJ1">
+      <c r="BK1">
         <v>2072</v>
       </c>
-      <c r="BK1">
+      <c r="BL1">
         <v>2073</v>
       </c>
-      <c r="BL1">
+      <c r="BM1">
         <v>2074</v>
       </c>
-      <c r="BM1">
+      <c r="BN1">
         <v>2075</v>
       </c>
-      <c r="BN1">
+      <c r="BO1">
         <v>2076</v>
       </c>
-      <c r="BO1">
+      <c r="BP1">
         <v>2077</v>
       </c>
-      <c r="BP1">
+      <c r="BQ1">
         <v>2078</v>
       </c>
-      <c r="BQ1">
+      <c r="BR1">
         <v>2079</v>
       </c>
-      <c r="BR1">
+      <c r="BS1">
         <v>2080</v>
       </c>
-      <c r="BS1">
+      <c r="BT1">
         <v>2081</v>
       </c>
-      <c r="BT1">
+      <c r="BU1">
         <v>2082</v>
       </c>
-      <c r="BU1">
+      <c r="BV1">
         <v>2083</v>
       </c>
-      <c r="BV1">
+      <c r="BW1">
         <v>2084</v>
       </c>
-      <c r="BW1">
+      <c r="BX1">
         <v>2085</v>
       </c>
-      <c r="BX1">
+      <c r="BY1">
         <v>2086</v>
       </c>
-      <c r="BY1">
+      <c r="BZ1">
         <v>2087</v>
       </c>
-      <c r="BZ1">
+      <c r="CA1">
         <v>2088</v>
       </c>
-      <c r="CA1">
+      <c r="CB1">
         <v>2089</v>
       </c>
-      <c r="CB1">
+      <c r="CC1">
         <v>2090</v>
       </c>
-      <c r="CC1">
+      <c r="CD1">
         <v>2091</v>
       </c>
-      <c r="CD1">
+      <c r="CE1">
         <v>2092</v>
       </c>
-      <c r="CE1">
+      <c r="CF1">
         <v>2093</v>
       </c>
-      <c r="CF1">
+      <c r="CG1">
         <v>2094</v>
       </c>
-      <c r="CG1">
+      <c r="CH1">
         <v>2095</v>
       </c>
-      <c r="CH1">
+      <c r="CI1">
         <v>2096</v>
       </c>
-      <c r="CI1">
+      <c r="CJ1">
         <v>2097</v>
       </c>
-      <c r="CJ1">
+      <c r="CK1">
         <v>2098</v>
       </c>
-      <c r="CK1">
+      <c r="CL1">
         <v>2099</v>
       </c>
-      <c r="CL1">
+      <c r="CM1">
         <v>2100</v>
       </c>
-      <c r="CM1">
+      <c r="CN1">
         <v>2101</v>
       </c>
-      <c r="CN1">
+      <c r="CO1">
         <v>2102</v>
       </c>
-      <c r="CO1">
+      <c r="CP1">
         <v>2103</v>
       </c>
-      <c r="CP1">
+      <c r="CQ1">
         <v>2104</v>
       </c>
-      <c r="CQ1">
+      <c r="CR1">
         <v>2105</v>
       </c>
-      <c r="CR1">
+      <c r="CS1">
         <v>2106</v>
       </c>
-      <c r="CS1">
+      <c r="CT1">
         <v>2107</v>
       </c>
-      <c r="CT1">
+      <c r="CU1">
         <v>2108</v>
       </c>
-      <c r="CU1">
+      <c r="CV1">
         <v>2109</v>
       </c>
-      <c r="CV1">
+      <c r="CW1">
         <v>2110</v>
       </c>
-      <c r="CW1">
+      <c r="CX1">
         <v>2111</v>
       </c>
-      <c r="CX1">
+      <c r="CY1">
         <v>2112</v>
       </c>
+      <c r="CZ1">
+        <v>2113</v>
+      </c>
+      <c r="DA1">
+        <v>2114</v>
+      </c>
+      <c r="DB1">
+        <v>2115</v>
+      </c>
+      <c r="DC1">
+        <v>2116</v>
+      </c>
+      <c r="DD1">
+        <v>2117</v>
+      </c>
+      <c r="DE1">
+        <v>2118</v>
+      </c>
+      <c r="DF1">
+        <v>2119</v>
+      </c>
+      <c r="DG1">
+        <v>2120</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -766,297 +809,324 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>192520.33933283907</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>198021.29018660949</v>
+        <v>13275</v>
       </c>
       <c r="J2">
-        <v>203618.38255967316</v>
+        <v>13607</v>
       </c>
       <c r="K2">
-        <v>209408.51260712621</v>
+        <v>13947</v>
       </c>
       <c r="L2">
-        <v>215774.32937393678</v>
+        <v>14296</v>
       </c>
       <c r="M2">
-        <v>221935.27686227887</v>
+        <v>14653</v>
       </c>
       <c r="N2">
-        <v>228458.45303209309</v>
+        <v>15019</v>
       </c>
       <c r="O2">
-        <v>234964.99265919079</v>
+        <v>15395</v>
       </c>
       <c r="P2">
-        <v>241690.75636083842</v>
+        <v>15780</v>
       </c>
       <c r="Q2">
-        <v>248645.25324960623</v>
+        <v>16174</v>
       </c>
       <c r="R2">
-        <v>255838.51290146631</v>
+        <v>16579</v>
       </c>
       <c r="S2">
-        <v>290087.6936285657</v>
+        <v>16993</v>
       </c>
       <c r="T2">
-        <v>298474.38172053959</v>
+        <v>22491</v>
       </c>
       <c r="U2">
-        <v>307015.3589145696</v>
+        <v>23053</v>
       </c>
       <c r="V2">
-        <v>315841.75623358705</v>
+        <v>23629</v>
       </c>
       <c r="W2">
-        <v>324818.2986585123</v>
+        <v>24220</v>
       </c>
       <c r="X2">
-        <v>334196.00938719953</v>
+        <v>24826</v>
       </c>
       <c r="Y2">
-        <v>343749.81082413282</v>
+        <v>25446</v>
       </c>
       <c r="Z2">
-        <v>353522.94670251722</v>
+        <v>26082</v>
       </c>
       <c r="AA2">
-        <v>363609.01767141838</v>
+        <v>26735</v>
       </c>
       <c r="AB2">
-        <v>374019.84772502561</v>
+        <v>27403</v>
       </c>
       <c r="AC2">
-        <v>384913.21579064662</v>
+        <v>28088</v>
       </c>
       <c r="AD2">
-        <v>396019.2862577379</v>
+        <v>28790</v>
       </c>
       <c r="AE2">
-        <v>407489.31786459021</v>
+        <v>29510</v>
       </c>
       <c r="AF2">
-        <v>419337.45516194368</v>
+        <v>30248</v>
       </c>
       <c r="AG2">
-        <v>465750.86380416667</v>
+        <v>31004</v>
       </c>
       <c r="AH2">
-        <v>479146.34008391213</v>
+        <v>38947</v>
       </c>
       <c r="AI2">
-        <v>492774.94005597214</v>
+        <v>39921</v>
       </c>
       <c r="AJ2">
-        <v>506832.14341312484</v>
+        <v>40919</v>
       </c>
       <c r="AK2">
-        <v>521333.35744077235</v>
+        <v>41942</v>
       </c>
       <c r="AL2">
-        <v>536329.29979007808</v>
+        <v>42990</v>
       </c>
       <c r="AM2">
-        <v>549737.53228482988</v>
+        <v>44065</v>
       </c>
       <c r="AN2">
-        <v>563480.97059195046</v>
+        <v>45167</v>
       </c>
       <c r="AO2">
-        <v>577567.99485674931</v>
+        <v>46296</v>
       </c>
       <c r="AP2">
-        <v>592007.19472816808</v>
+        <v>47453</v>
       </c>
       <c r="AQ2">
-        <v>606807.37459637225</v>
+        <v>48640</v>
       </c>
       <c r="AR2">
-        <v>621977.55896128155</v>
+        <v>49855</v>
       </c>
       <c r="AS2">
-        <v>637526.99793531362</v>
+        <v>51102</v>
       </c>
       <c r="AT2">
-        <v>653465.17288369616</v>
+        <v>52379</v>
       </c>
       <c r="AU2">
-        <v>669801.80220578867</v>
+        <v>53689</v>
       </c>
       <c r="AV2">
-        <v>686546.84726093325</v>
+        <v>55031</v>
       </c>
       <c r="AW2">
-        <v>703710.51844245661</v>
+        <v>56407</v>
       </c>
       <c r="AX2">
-        <v>721303.28140351805</v>
+        <v>57817</v>
       </c>
       <c r="AY2">
-        <v>739335.86343860591</v>
+        <v>59263</v>
       </c>
       <c r="AZ2">
-        <v>757819.26002457098</v>
+        <v>60744</v>
       </c>
       <c r="BA2">
-        <v>776764.74152518553</v>
+        <v>62263</v>
       </c>
       <c r="BB2">
-        <v>796183.86006331502</v>
+        <v>63819</v>
       </c>
       <c r="BC2">
-        <v>816088.45656489767</v>
+        <v>65415</v>
       </c>
       <c r="BD2">
-        <v>836490.66797902004</v>
+        <v>67050</v>
       </c>
       <c r="BE2">
-        <v>857402.93467849563</v>
+        <v>68726</v>
       </c>
       <c r="BF2">
-        <v>878838.008045458</v>
+        <v>70445</v>
       </c>
       <c r="BG2">
-        <v>900808.95824659429</v>
+        <v>72206</v>
       </c>
       <c r="BH2">
-        <v>923329.1822027592</v>
+        <v>74011</v>
       </c>
       <c r="BI2">
-        <v>946412.41175782809</v>
+        <v>75861</v>
       </c>
       <c r="BJ2">
-        <v>970072.72205177369</v>
+        <v>77758</v>
       </c>
       <c r="BK2">
-        <v>994324.54010306811</v>
+        <v>79701</v>
       </c>
       <c r="BL2">
-        <v>1019182.6536056446</v>
+        <v>81694</v>
       </c>
       <c r="BM2">
-        <v>1044662.2199457861</v>
+        <v>83736</v>
       </c>
       <c r="BN2">
-        <v>1070778.7754444305</v>
+        <v>85830</v>
       </c>
       <c r="BO2">
-        <v>1097548.2448305411</v>
+        <v>87976</v>
       </c>
       <c r="BP2">
-        <v>1124986.9509513045</v>
+        <v>90175</v>
       </c>
       <c r="BQ2">
-        <v>1153111.6247250871</v>
+        <v>92429</v>
       </c>
       <c r="BR2">
-        <v>1181939.4153432141</v>
+        <v>94740</v>
       </c>
       <c r="BS2">
-        <v>1211487.9007267945</v>
+        <v>97109</v>
       </c>
       <c r="BT2">
-        <v>1241775.0982449644</v>
+        <v>99536</v>
       </c>
       <c r="BU2">
-        <v>1272819.4757010886</v>
+        <v>102025</v>
       </c>
       <c r="BV2">
-        <v>1304639.9625936153</v>
+        <v>104575</v>
       </c>
       <c r="BW2">
-        <v>1337255.9616584557</v>
+        <v>107190</v>
       </c>
       <c r="BX2">
-        <v>1370687.360699917</v>
+        <v>109869</v>
       </c>
       <c r="BY2">
-        <v>1404954.544717415</v>
+        <v>112616</v>
       </c>
       <c r="BZ2">
-        <v>1440078.40833535</v>
+        <v>115432</v>
       </c>
       <c r="CA2">
-        <v>1476080.3685437341</v>
+        <v>118317</v>
       </c>
       <c r="CB2">
-        <v>1512982.3777573269</v>
+        <v>121275</v>
       </c>
       <c r="CC2">
-        <v>1550806.9372012608</v>
+        <v>124307</v>
       </c>
       <c r="CD2">
-        <v>1589577.1106312918</v>
+        <v>127415</v>
       </c>
       <c r="CE2">
-        <v>1629316.538397074</v>
+        <v>130600</v>
       </c>
       <c r="CF2">
-        <v>1670049.4518570011</v>
+        <v>133865</v>
       </c>
       <c r="CG2">
-        <v>1711800.6881534259</v>
+        <v>137212</v>
       </c>
       <c r="CH2">
-        <v>1754595.7053572615</v>
+        <v>140642</v>
       </c>
       <c r="CI2">
-        <v>1798460.5979911927</v>
+        <v>144158</v>
       </c>
       <c r="CJ2">
-        <v>1843422.1129409727</v>
+        <v>147762</v>
       </c>
       <c r="CK2">
-        <v>1889507.6657644969</v>
+        <v>151456</v>
       </c>
       <c r="CL2">
-        <v>1936745.3574086092</v>
+        <v>155243</v>
       </c>
       <c r="CM2">
-        <v>1985163.9913438237</v>
+        <v>159124</v>
       </c>
       <c r="CN2">
-        <v>2034793.0911274196</v>
+        <v>163102</v>
       </c>
       <c r="CO2">
-        <v>2085662.9184056048</v>
+        <v>167179</v>
       </c>
       <c r="CP2">
-        <v>2137804.4913657447</v>
+        <v>171359</v>
       </c>
       <c r="CQ2">
-        <v>2191249.6036498887</v>
+        <v>175643</v>
       </c>
       <c r="CR2">
-        <v>2246030.8437411357</v>
+        <v>180034</v>
       </c>
       <c r="CS2">
-        <v>2302181.6148346644</v>
+        <v>184535</v>
       </c>
       <c r="CT2">
-        <v>2359736.1552055301</v>
+        <v>189148</v>
       </c>
       <c r="CU2">
-        <v>2418729.559085669</v>
+        <v>193877</v>
       </c>
       <c r="CV2">
-        <v>2479197.7980628107</v>
+        <v>198724</v>
       </c>
       <c r="CW2">
-        <v>2541177.7430143803</v>
+        <v>203692</v>
       </c>
       <c r="CX2">
-        <v>2604707.1865897402</v>
+        <v>208784</v>
+      </c>
+      <c r="CY2">
+        <v>214004</v>
+      </c>
+      <c r="CZ2">
+        <v>219354</v>
+      </c>
+      <c r="DA2">
+        <v>224838</v>
+      </c>
+      <c r="DB2">
+        <v>230458</v>
+      </c>
+      <c r="DC2">
+        <v>236220</v>
+      </c>
+      <c r="DD2">
+        <v>242125</v>
+      </c>
+      <c r="DE2">
+        <v>248179</v>
+      </c>
+      <c r="DF2">
+        <v>254383</v>
+      </c>
+      <c r="DG2">
+        <v>260743</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1074,297 +1144,324 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>148459.31262594135</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>157030.14280258553</v>
+        <v>62563</v>
       </c>
       <c r="J3">
-        <v>165493.22876297709</v>
+        <v>64471</v>
       </c>
       <c r="K3">
-        <v>174561.07048740488</v>
+        <v>66406</v>
       </c>
       <c r="L3">
-        <v>186917.94514355206</v>
+        <v>68416</v>
       </c>
       <c r="M3">
-        <v>196973.07324244166</v>
+        <v>70691</v>
       </c>
       <c r="N3">
-        <v>208807.43885248015</v>
+        <v>72842</v>
       </c>
       <c r="O3">
-        <v>232882.89889528402</v>
+        <v>75150</v>
       </c>
       <c r="P3">
-        <v>244698.80631623679</v>
+        <v>77427</v>
       </c>
       <c r="Q3">
-        <v>257243.82373706138</v>
+        <v>79788</v>
       </c>
       <c r="R3">
-        <v>270554.11837662896</v>
+        <v>82239</v>
       </c>
       <c r="S3">
-        <v>286797.65310317778</v>
+        <v>84784</v>
       </c>
       <c r="T3">
-        <v>320584.73010713648</v>
+        <v>87572</v>
       </c>
       <c r="U3">
-        <v>336164.16103830677</v>
+        <v>90328</v>
       </c>
       <c r="V3">
-        <v>352666.30751217948</v>
+        <v>93126</v>
       </c>
       <c r="W3">
-        <v>369031.0060397156</v>
+        <v>96030</v>
       </c>
       <c r="X3">
-        <v>387222.72502930561</v>
+        <v>98971</v>
       </c>
       <c r="Y3">
-        <v>405426.36275160796</v>
+        <v>102074</v>
       </c>
       <c r="Z3">
-        <v>439390.17748019914</v>
+        <v>105225</v>
       </c>
       <c r="AA3">
-        <v>459251.61625997053</v>
+        <v>108445</v>
       </c>
       <c r="AB3">
-        <v>500742.32899719081</v>
+        <v>111780</v>
       </c>
       <c r="AC3">
-        <v>524277.64412562374</v>
+        <v>115235</v>
       </c>
       <c r="AD3">
-        <v>547922.08593776484</v>
+        <v>118887</v>
       </c>
       <c r="AE3">
-        <v>572793.5224586837</v>
+        <v>122601</v>
       </c>
       <c r="AF3">
-        <v>598947.83680133009</v>
+        <v>126451</v>
       </c>
       <c r="AG3">
-        <v>624546.86617158132</v>
+        <v>130443</v>
       </c>
       <c r="AH3">
-        <v>652686.69226017129</v>
+        <v>134450</v>
       </c>
       <c r="AI3">
-        <v>680831.20267600846</v>
+        <v>138687</v>
       </c>
       <c r="AJ3">
-        <v>727478.84475354617</v>
+        <v>142979</v>
       </c>
       <c r="AK3">
-        <v>758756.41567872616</v>
+        <v>147423</v>
       </c>
       <c r="AL3">
-        <v>791790.24526617525</v>
+        <v>152023</v>
       </c>
       <c r="AM3">
-        <v>811585.00139782962</v>
+        <v>156805</v>
       </c>
       <c r="AN3">
-        <v>831874.62643277505</v>
+        <v>160725</v>
       </c>
       <c r="AO3">
-        <v>852671.49209359463</v>
+        <v>164743</v>
       </c>
       <c r="AP3">
-        <v>873988.27939593443</v>
+        <v>168862</v>
       </c>
       <c r="AQ3">
-        <v>895837.98638083262</v>
+        <v>173084</v>
       </c>
       <c r="AR3">
-        <v>918233.9360403535</v>
+        <v>177411</v>
       </c>
       <c r="AS3">
-        <v>941189.78444136237</v>
+        <v>181846</v>
       </c>
       <c r="AT3">
-        <v>964719.52905239607</v>
+        <v>186392</v>
       </c>
       <c r="AU3">
-        <v>988837.51727870607</v>
+        <v>191052</v>
       </c>
       <c r="AV3">
-        <v>1013558.4552106734</v>
+        <v>195828</v>
       </c>
       <c r="AW3">
-        <v>1038897.4165909404</v>
+        <v>200724</v>
       </c>
       <c r="AX3">
-        <v>1064869.8520057139</v>
+        <v>205742</v>
       </c>
       <c r="AY3">
-        <v>1091491.5983058568</v>
+        <v>210886</v>
       </c>
       <c r="AZ3">
-        <v>1118778.8882635031</v>
+        <v>216158</v>
       </c>
       <c r="BA3">
-        <v>1146748.3604700908</v>
+        <v>221562</v>
       </c>
       <c r="BB3">
-        <v>1175417.0694818429</v>
+        <v>227101</v>
       </c>
       <c r="BC3">
-        <v>1204802.4962188888</v>
+        <v>232778</v>
       </c>
       <c r="BD3">
-        <v>1234922.5586243609</v>
+        <v>238598</v>
       </c>
       <c r="BE3">
-        <v>1265795.62258997</v>
+        <v>244563</v>
       </c>
       <c r="BF3">
-        <v>1297440.5131547193</v>
+        <v>250677</v>
       </c>
       <c r="BG3">
-        <v>1329876.5259835871</v>
+        <v>256944</v>
       </c>
       <c r="BH3">
-        <v>1363123.4391331766</v>
+        <v>263367</v>
       </c>
       <c r="BI3">
-        <v>1397201.525111506</v>
+        <v>269951</v>
       </c>
       <c r="BJ3">
-        <v>1432131.5632392936</v>
+        <v>276700</v>
       </c>
       <c r="BK3">
-        <v>1467934.852320276</v>
+        <v>283618</v>
       </c>
       <c r="BL3">
-        <v>1504633.2236282828</v>
+        <v>290708</v>
       </c>
       <c r="BM3">
-        <v>1542249.0542189903</v>
+        <v>297976</v>
       </c>
       <c r="BN3">
-        <v>1580805.2805744645</v>
+        <v>305425</v>
       </c>
       <c r="BO3">
-        <v>1620325.4125888259</v>
+        <v>313061</v>
       </c>
       <c r="BP3">
-        <v>1660833.5479035468</v>
+        <v>320887</v>
       </c>
       <c r="BQ3">
-        <v>1702354.3866011354</v>
+        <v>328909</v>
       </c>
       <c r="BR3">
-        <v>1744913.2462661639</v>
+        <v>337132</v>
       </c>
       <c r="BS3">
-        <v>1788536.0774228175</v>
+        <v>345560</v>
       </c>
       <c r="BT3">
-        <v>1833249.4793583876</v>
+        <v>354199</v>
       </c>
       <c r="BU3">
-        <v>1879080.7163423477</v>
+        <v>363054</v>
       </c>
       <c r="BV3">
-        <v>1926057.7342509059</v>
+        <v>372131</v>
       </c>
       <c r="BW3">
-        <v>1974209.1776071782</v>
+        <v>381434</v>
       </c>
       <c r="BX3">
-        <v>2023564.4070473579</v>
+        <v>390970</v>
       </c>
       <c r="BY3">
-        <v>2074153.5172235416</v>
+        <v>400744</v>
       </c>
       <c r="BZ3">
-        <v>2126007.3551541301</v>
+        <v>410763</v>
       </c>
       <c r="CA3">
-        <v>2179157.5390329831</v>
+        <v>421032</v>
       </c>
       <c r="CB3">
-        <v>2233636.4775088076</v>
+        <v>431558</v>
       </c>
       <c r="CC3">
-        <v>2289477.3894465282</v>
+        <v>442347</v>
       </c>
       <c r="CD3">
-        <v>2346714.3241826911</v>
+        <v>453405</v>
       </c>
       <c r="CE3">
-        <v>2405382.1822872581</v>
+        <v>464740</v>
       </c>
       <c r="CF3">
-        <v>2465516.7368444395</v>
+        <v>476359</v>
       </c>
       <c r="CG3">
-        <v>2527154.6552655506</v>
+        <v>488268</v>
       </c>
       <c r="CH3">
-        <v>2590333.5216471888</v>
+        <v>500475</v>
       </c>
       <c r="CI3">
-        <v>2655091.8596883682</v>
+        <v>512986</v>
       </c>
       <c r="CJ3">
-        <v>2721469.1561805774</v>
+        <v>525811</v>
       </c>
       <c r="CK3">
-        <v>2789505.8850850919</v>
+        <v>538956</v>
       </c>
       <c r="CL3">
-        <v>2859243.5322122192</v>
+        <v>552430</v>
       </c>
       <c r="CM3">
-        <v>2930724.620517524</v>
+        <v>566241</v>
       </c>
       <c r="CN3">
-        <v>3003992.7360304622</v>
+        <v>580397</v>
       </c>
       <c r="CO3">
-        <v>3079092.5544312242</v>
+        <v>594907</v>
       </c>
       <c r="CP3">
-        <v>3156069.8682920034</v>
+        <v>609780</v>
       </c>
       <c r="CQ3">
-        <v>3234971.6149993045</v>
+        <v>625024</v>
       </c>
       <c r="CR3">
-        <v>3315845.9053742867</v>
+        <v>640650</v>
       </c>
       <c r="CS3">
-        <v>3398742.0530086439</v>
+        <v>656666</v>
       </c>
       <c r="CT3">
-        <v>3483710.6043338594</v>
+        <v>673083</v>
       </c>
       <c r="CU3">
-        <v>3570803.3694422059</v>
+        <v>689910</v>
       </c>
       <c r="CV3">
-        <v>3660073.4536782615</v>
+        <v>707158</v>
       </c>
       <c r="CW3">
-        <v>3751575.2900202172</v>
+        <v>724836</v>
       </c>
       <c r="CX3">
-        <v>3845364.6722707227</v>
+        <v>742957</v>
+      </c>
+      <c r="CY3">
+        <v>761531</v>
+      </c>
+      <c r="CZ3">
+        <v>780570</v>
+      </c>
+      <c r="DA3">
+        <v>800084</v>
+      </c>
+      <c r="DB3">
+        <v>820086</v>
+      </c>
+      <c r="DC3">
+        <v>840588</v>
+      </c>
+      <c r="DD3">
+        <v>861603</v>
+      </c>
+      <c r="DE3">
+        <v>883143</v>
+      </c>
+      <c r="DF3">
+        <v>905221</v>
+      </c>
+      <c r="DG3">
+        <v>927852</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1382,289 +1479,2661 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3899.6915914269598</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3997.1838812126334</v>
+        <v>75838</v>
       </c>
       <c r="J4">
-        <v>4097.113478242949</v>
+        <v>78078</v>
       </c>
       <c r="K4">
-        <v>4199.5413151990224</v>
+        <v>80353</v>
       </c>
       <c r="L4">
-        <v>4304.5298480789979</v>
+        <v>82711</v>
       </c>
       <c r="M4">
-        <v>4412.1430942809729</v>
+        <v>85344</v>
       </c>
       <c r="N4">
-        <v>4522.4466716379966</v>
+        <v>87861</v>
       </c>
       <c r="O4">
-        <v>4635.5078384289463</v>
+        <v>90545</v>
       </c>
       <c r="P4">
-        <v>4751.3955343896687</v>
+        <v>93206</v>
       </c>
       <c r="Q4">
-        <v>4870.1804227494122</v>
+        <v>95962</v>
       </c>
       <c r="R4">
-        <v>4991.9349333181462</v>
+        <v>98818</v>
       </c>
       <c r="S4">
-        <v>6383.0567330696149</v>
+        <v>101777</v>
       </c>
       <c r="T4">
-        <v>6542.633151396356</v>
+        <v>110063</v>
       </c>
       <c r="U4">
-        <v>6706.1989801812633</v>
+        <v>113381</v>
       </c>
       <c r="V4">
-        <v>6873.8539546857955</v>
+        <v>116755</v>
       </c>
       <c r="W4">
-        <v>7045.7003035529387</v>
+        <v>120250</v>
       </c>
       <c r="X4">
-        <v>7221.8428111417616</v>
+        <v>123796</v>
       </c>
       <c r="Y4">
-        <v>7402.3888814203065</v>
+        <v>127520</v>
       </c>
       <c r="Z4">
-        <v>7587.448603455814</v>
+        <v>131307</v>
       </c>
       <c r="AA4">
-        <v>7777.1348185422075</v>
+        <v>135180</v>
       </c>
       <c r="AB4">
-        <v>7971.5631890057621</v>
+        <v>139183</v>
       </c>
       <c r="AC4">
-        <v>8170.852268730906</v>
+        <v>143323</v>
       </c>
       <c r="AD4">
-        <v>8375.1235754491772</v>
+        <v>147678</v>
       </c>
       <c r="AE4">
-        <v>8584.5016648354085</v>
+        <v>152111</v>
       </c>
       <c r="AF4">
-        <v>8799.1142064562919</v>
+        <v>156699</v>
       </c>
       <c r="AG4">
-        <v>10355.801012187329</v>
+        <v>161447</v>
       </c>
       <c r="AH4">
-        <v>10614.696037492009</v>
+        <v>173397</v>
       </c>
       <c r="AI4">
-        <v>10880.063438429308</v>
+        <v>178608</v>
       </c>
       <c r="AJ4">
-        <v>11152.06502439004</v>
+        <v>183898</v>
       </c>
       <c r="AK4">
-        <v>11430.866649999791</v>
+        <v>189364</v>
       </c>
       <c r="AL4">
-        <v>11716.638316249786</v>
+        <v>195014</v>
       </c>
       <c r="AM4">
-        <v>12009.554274156028</v>
+        <v>200870</v>
       </c>
       <c r="AN4">
-        <v>12309.793131009927</v>
+        <v>205892</v>
       </c>
       <c r="AO4">
-        <v>12617.537959285175</v>
+        <v>211039</v>
       </c>
       <c r="AP4">
-        <v>12932.976408267305</v>
+        <v>216315</v>
       </c>
       <c r="AQ4">
-        <v>13256.300818473985</v>
+        <v>221723</v>
       </c>
       <c r="AR4">
-        <v>13587.708338935836</v>
+        <v>227266</v>
       </c>
       <c r="AS4">
-        <v>13927.40104740923</v>
+        <v>232948</v>
       </c>
       <c r="AT4">
-        <v>14275.586073594459</v>
+        <v>238771</v>
       </c>
       <c r="AU4">
-        <v>14632.475725434322</v>
+        <v>244741</v>
       </c>
       <c r="AV4">
-        <v>14998.287618570177</v>
+        <v>250859</v>
       </c>
       <c r="AW4">
-        <v>15373.244809034433</v>
+        <v>257131</v>
       </c>
       <c r="AX4">
-        <v>15757.575929260292</v>
+        <v>263559</v>
       </c>
       <c r="AY4">
-        <v>16151.515327491798</v>
+        <v>270148</v>
       </c>
       <c r="AZ4">
-        <v>16555.303210679092</v>
+        <v>276902</v>
       </c>
       <c r="BA4">
-        <v>16969.185790946074</v>
+        <v>283824</v>
       </c>
       <c r="BB4">
-        <v>17393.415435719722</v>
+        <v>290920</v>
       </c>
       <c r="BC4">
-        <v>17828.250821612713</v>
+        <v>298193</v>
       </c>
       <c r="BD4">
-        <v>18273.957092153032</v>
+        <v>305648</v>
       </c>
       <c r="BE4">
-        <v>18730.806019456857</v>
+        <v>313289</v>
       </c>
       <c r="BF4">
-        <v>19199.076169943277</v>
+        <v>321121</v>
       </c>
       <c r="BG4">
-        <v>19679.053074191856</v>
+        <v>329149</v>
       </c>
       <c r="BH4">
-        <v>20171.029401046653</v>
+        <v>337378</v>
       </c>
       <c r="BI4">
-        <v>20675.305136072817</v>
+        <v>345812</v>
       </c>
       <c r="BJ4">
-        <v>21192.187764474635</v>
+        <v>354458</v>
       </c>
       <c r="BK4">
-        <v>21721.992458586501</v>
+        <v>363319</v>
       </c>
       <c r="BL4">
-        <v>22265.042270051163</v>
+        <v>372402</v>
       </c>
       <c r="BM4">
-        <v>22821.668326802446</v>
+        <v>381712</v>
       </c>
       <c r="BN4">
-        <v>23392.210034972501</v>
+        <v>391255</v>
       </c>
       <c r="BO4">
-        <v>23977.01528584681</v>
+        <v>401036</v>
       </c>
       <c r="BP4">
-        <v>24576.440667992982</v>
+        <v>411062</v>
       </c>
       <c r="BQ4">
-        <v>25190.851684692807</v>
+        <v>421339</v>
       </c>
       <c r="BR4">
-        <v>25820.622976810122</v>
+        <v>431872</v>
       </c>
       <c r="BS4">
-        <v>26466.138551230375</v>
+        <v>442669</v>
       </c>
       <c r="BT4">
-        <v>27127.792015011131</v>
+        <v>453736</v>
       </c>
       <c r="BU4">
-        <v>27805.986815386412</v>
+        <v>465079</v>
       </c>
       <c r="BV4">
-        <v>28501.136485771069</v>
+        <v>476706</v>
       </c>
       <c r="BW4">
-        <v>29213.66489791534</v>
+        <v>488624</v>
       </c>
       <c r="BX4">
-        <v>29944.006520363222</v>
+        <v>500839</v>
       </c>
       <c r="BY4">
-        <v>30692.606683372309</v>
+        <v>513360</v>
       </c>
       <c r="BZ4">
-        <v>31459.921850456609</v>
+        <v>526194</v>
       </c>
       <c r="CA4">
-        <v>32246.419896718024</v>
+        <v>539349</v>
       </c>
       <c r="CB4">
-        <v>33052.58039413597</v>
+        <v>552833</v>
       </c>
       <c r="CC4">
-        <v>33878.894903989378</v>
+        <v>566654</v>
       </c>
       <c r="CD4">
-        <v>34725.867276589102</v>
+        <v>580820</v>
       </c>
       <c r="CE4">
-        <v>35594.013958503827</v>
+        <v>595341</v>
       </c>
       <c r="CF4">
-        <v>36483.864307466421</v>
+        <v>610224</v>
       </c>
       <c r="CG4">
-        <v>37395.960915153089</v>
+        <v>625480</v>
       </c>
       <c r="CH4">
-        <v>38330.859938031914</v>
+        <v>641117</v>
       </c>
       <c r="CI4">
-        <v>39289.131436482705</v>
+        <v>657145</v>
       </c>
       <c r="CJ4">
-        <v>40271.359722394773</v>
+        <v>673573</v>
       </c>
       <c r="CK4">
-        <v>41278.143715454637</v>
+        <v>690413</v>
       </c>
       <c r="CL4">
-        <v>42310.097308341006</v>
+        <v>707673</v>
       </c>
       <c r="CM4">
-        <v>43367.849741049518</v>
+        <v>725365</v>
       </c>
       <c r="CN4">
-        <v>44452.045984575758</v>
+        <v>743499</v>
       </c>
       <c r="CO4">
-        <v>45563.347134190153</v>
+        <v>762086</v>
       </c>
       <c r="CP4">
-        <v>46702.430812544895</v>
+        <v>781138</v>
       </c>
       <c r="CQ4">
-        <v>47869.991582858522</v>
+        <v>800667</v>
       </c>
       <c r="CR4">
-        <v>49066.741372429984</v>
+        <v>820684</v>
       </c>
       <c r="CS4">
-        <v>50293.409906740737</v>
+        <v>841201</v>
       </c>
       <c r="CT4">
-        <v>51550.745154409247</v>
+        <v>862231</v>
       </c>
       <c r="CU4">
-        <v>52839.513783269475</v>
+        <v>883786</v>
       </c>
       <c r="CV4">
-        <v>54160.501627851219</v>
+        <v>905881</v>
       </c>
       <c r="CW4">
-        <v>55514.514168547488</v>
+        <v>928528</v>
       </c>
       <c r="CX4">
-        <v>56902.377022761182</v>
+        <v>951741</v>
+      </c>
+      <c r="CY4">
+        <v>975535</v>
+      </c>
+      <c r="CZ4">
+        <v>999923</v>
+      </c>
+      <c r="DA4">
+        <v>1024921</v>
+      </c>
+      <c r="DB4">
+        <v>1050544</v>
+      </c>
+      <c r="DC4">
+        <v>1076808</v>
+      </c>
+      <c r="DD4">
+        <v>1103728</v>
+      </c>
+      <c r="DE4">
+        <v>1131321</v>
+      </c>
+      <c r="DF4">
+        <v>1159604</v>
+      </c>
+      <c r="DG4">
+        <v>1188595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>15331</v>
+      </c>
+      <c r="J5">
+        <v>15714</v>
+      </c>
+      <c r="K5">
+        <v>16107</v>
+      </c>
+      <c r="L5">
+        <v>16510</v>
+      </c>
+      <c r="M5">
+        <v>16923</v>
+      </c>
+      <c r="N5">
+        <v>17346</v>
+      </c>
+      <c r="O5">
+        <v>17779</v>
+      </c>
+      <c r="P5">
+        <v>18224</v>
+      </c>
+      <c r="Q5">
+        <v>18679</v>
+      </c>
+      <c r="R5">
+        <v>19146</v>
+      </c>
+      <c r="S5">
+        <v>19625</v>
+      </c>
+      <c r="T5">
+        <v>26819</v>
+      </c>
+      <c r="U5">
+        <v>27489</v>
+      </c>
+      <c r="V5">
+        <v>28176</v>
+      </c>
+      <c r="W5">
+        <v>28881</v>
+      </c>
+      <c r="X5">
+        <v>29603</v>
+      </c>
+      <c r="Y5">
+        <v>30343</v>
+      </c>
+      <c r="Z5">
+        <v>31101</v>
+      </c>
+      <c r="AA5">
+        <v>31879</v>
+      </c>
+      <c r="AB5">
+        <v>32676</v>
+      </c>
+      <c r="AC5">
+        <v>33493</v>
+      </c>
+      <c r="AD5">
+        <v>34330</v>
+      </c>
+      <c r="AE5">
+        <v>35188</v>
+      </c>
+      <c r="AF5">
+        <v>36068</v>
+      </c>
+      <c r="AG5">
+        <v>36970</v>
+      </c>
+      <c r="AH5">
+        <v>43820</v>
+      </c>
+      <c r="AI5">
+        <v>44916</v>
+      </c>
+      <c r="AJ5">
+        <v>46039</v>
+      </c>
+      <c r="AK5">
+        <v>47190</v>
+      </c>
+      <c r="AL5">
+        <v>48369</v>
+      </c>
+      <c r="AM5">
+        <v>49579</v>
+      </c>
+      <c r="AN5">
+        <v>50818</v>
+      </c>
+      <c r="AO5">
+        <v>52089</v>
+      </c>
+      <c r="AP5">
+        <v>53391</v>
+      </c>
+      <c r="AQ5">
+        <v>54726</v>
+      </c>
+      <c r="AR5">
+        <v>56094</v>
+      </c>
+      <c r="AS5">
+        <v>57496</v>
+      </c>
+      <c r="AT5">
+        <v>58933</v>
+      </c>
+      <c r="AU5">
+        <v>60407</v>
+      </c>
+      <c r="AV5">
+        <v>61917</v>
+      </c>
+      <c r="AW5">
+        <v>63465</v>
+      </c>
+      <c r="AX5">
+        <v>65051</v>
+      </c>
+      <c r="AY5">
+        <v>66678</v>
+      </c>
+      <c r="AZ5">
+        <v>68345</v>
+      </c>
+      <c r="BA5">
+        <v>70053</v>
+      </c>
+      <c r="BB5">
+        <v>71805</v>
+      </c>
+      <c r="BC5">
+        <v>73600</v>
+      </c>
+      <c r="BD5">
+        <v>75440</v>
+      </c>
+      <c r="BE5">
+        <v>77326</v>
+      </c>
+      <c r="BF5">
+        <v>79259</v>
+      </c>
+      <c r="BG5">
+        <v>81240</v>
+      </c>
+      <c r="BH5">
+        <v>83271</v>
+      </c>
+      <c r="BI5">
+        <v>85353</v>
+      </c>
+      <c r="BJ5">
+        <v>87487</v>
+      </c>
+      <c r="BK5">
+        <v>89674</v>
+      </c>
+      <c r="BL5">
+        <v>91916</v>
+      </c>
+      <c r="BM5">
+        <v>94214</v>
+      </c>
+      <c r="BN5">
+        <v>96569</v>
+      </c>
+      <c r="BO5">
+        <v>98984</v>
+      </c>
+      <c r="BP5">
+        <v>101458</v>
+      </c>
+      <c r="BQ5">
+        <v>103995</v>
+      </c>
+      <c r="BR5">
+        <v>106594</v>
+      </c>
+      <c r="BS5">
+        <v>109259</v>
+      </c>
+      <c r="BT5">
+        <v>111991</v>
+      </c>
+      <c r="BU5">
+        <v>114791</v>
+      </c>
+      <c r="BV5">
+        <v>117660</v>
+      </c>
+      <c r="BW5">
+        <v>120602</v>
+      </c>
+      <c r="BX5">
+        <v>123617</v>
+      </c>
+      <c r="BY5">
+        <v>126707</v>
+      </c>
+      <c r="BZ5">
+        <v>129875</v>
+      </c>
+      <c r="CA5">
+        <v>133122</v>
+      </c>
+      <c r="CB5">
+        <v>136450</v>
+      </c>
+      <c r="CC5">
+        <v>139861</v>
+      </c>
+      <c r="CD5">
+        <v>143358</v>
+      </c>
+      <c r="CE5">
+        <v>146942</v>
+      </c>
+      <c r="CF5">
+        <v>150615</v>
+      </c>
+      <c r="CG5">
+        <v>154381</v>
+      </c>
+      <c r="CH5">
+        <v>158240</v>
+      </c>
+      <c r="CI5">
+        <v>162196</v>
+      </c>
+      <c r="CJ5">
+        <v>166251</v>
+      </c>
+      <c r="CK5">
+        <v>170407</v>
+      </c>
+      <c r="CL5">
+        <v>174667</v>
+      </c>
+      <c r="CM5">
+        <v>179034</v>
+      </c>
+      <c r="CN5">
+        <v>183510</v>
+      </c>
+      <c r="CO5">
+        <v>188098</v>
+      </c>
+      <c r="CP5">
+        <v>192800</v>
+      </c>
+      <c r="CQ5">
+        <v>197620</v>
+      </c>
+      <c r="CR5">
+        <v>202561</v>
+      </c>
+      <c r="CS5">
+        <v>207625</v>
+      </c>
+      <c r="CT5">
+        <v>212815</v>
+      </c>
+      <c r="CU5">
+        <v>218136</v>
+      </c>
+      <c r="CV5">
+        <v>223589</v>
+      </c>
+      <c r="CW5">
+        <v>229179</v>
+      </c>
+      <c r="CX5">
+        <v>234908</v>
+      </c>
+      <c r="CY5">
+        <v>240781</v>
+      </c>
+      <c r="CZ5">
+        <v>246800</v>
+      </c>
+      <c r="DA5">
+        <v>252970</v>
+      </c>
+      <c r="DB5">
+        <v>259295</v>
+      </c>
+      <c r="DC5">
+        <v>265777</v>
+      </c>
+      <c r="DD5">
+        <v>272422</v>
+      </c>
+      <c r="DE5">
+        <v>279232</v>
+      </c>
+      <c r="DF5">
+        <v>286213</v>
+      </c>
+      <c r="DG5">
+        <v>293368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>25514</v>
+      </c>
+      <c r="J6">
+        <v>26152</v>
+      </c>
+      <c r="K6">
+        <v>26806</v>
+      </c>
+      <c r="L6">
+        <v>27476</v>
+      </c>
+      <c r="M6">
+        <v>28163</v>
+      </c>
+      <c r="N6">
+        <v>28867</v>
+      </c>
+      <c r="O6">
+        <v>29589</v>
+      </c>
+      <c r="P6">
+        <v>30328</v>
+      </c>
+      <c r="Q6">
+        <v>31087</v>
+      </c>
+      <c r="R6">
+        <v>31864</v>
+      </c>
+      <c r="S6">
+        <v>32660</v>
+      </c>
+      <c r="T6">
+        <v>43144</v>
+      </c>
+      <c r="U6">
+        <v>44223</v>
+      </c>
+      <c r="V6">
+        <v>45328</v>
+      </c>
+      <c r="W6">
+        <v>46461</v>
+      </c>
+      <c r="X6">
+        <v>47623</v>
+      </c>
+      <c r="Y6">
+        <v>48814</v>
+      </c>
+      <c r="Z6">
+        <v>50034</v>
+      </c>
+      <c r="AA6">
+        <v>51285</v>
+      </c>
+      <c r="AB6">
+        <v>52567</v>
+      </c>
+      <c r="AC6">
+        <v>53881</v>
+      </c>
+      <c r="AD6">
+        <v>55228</v>
+      </c>
+      <c r="AE6">
+        <v>56609</v>
+      </c>
+      <c r="AF6">
+        <v>58024</v>
+      </c>
+      <c r="AG6">
+        <v>59475</v>
+      </c>
+      <c r="AH6">
+        <v>75137</v>
+      </c>
+      <c r="AI6">
+        <v>77015</v>
+      </c>
+      <c r="AJ6">
+        <v>78941</v>
+      </c>
+      <c r="AK6">
+        <v>80914</v>
+      </c>
+      <c r="AL6">
+        <v>82937</v>
+      </c>
+      <c r="AM6">
+        <v>85010</v>
+      </c>
+      <c r="AN6">
+        <v>87136</v>
+      </c>
+      <c r="AO6">
+        <v>89314</v>
+      </c>
+      <c r="AP6">
+        <v>91547</v>
+      </c>
+      <c r="AQ6">
+        <v>93835</v>
+      </c>
+      <c r="AR6">
+        <v>96181</v>
+      </c>
+      <c r="AS6">
+        <v>98586</v>
+      </c>
+      <c r="AT6">
+        <v>101051</v>
+      </c>
+      <c r="AU6">
+        <v>103577</v>
+      </c>
+      <c r="AV6">
+        <v>106166</v>
+      </c>
+      <c r="AW6">
+        <v>108820</v>
+      </c>
+      <c r="AX6">
+        <v>111541</v>
+      </c>
+      <c r="AY6">
+        <v>114329</v>
+      </c>
+      <c r="AZ6">
+        <v>117188</v>
+      </c>
+      <c r="BA6">
+        <v>120117</v>
+      </c>
+      <c r="BB6">
+        <v>123120</v>
+      </c>
+      <c r="BC6">
+        <v>126198</v>
+      </c>
+      <c r="BD6">
+        <v>129353</v>
+      </c>
+      <c r="BE6">
+        <v>132587</v>
+      </c>
+      <c r="BF6">
+        <v>135902</v>
+      </c>
+      <c r="BG6">
+        <v>139299</v>
+      </c>
+      <c r="BH6">
+        <v>142782</v>
+      </c>
+      <c r="BI6">
+        <v>146351</v>
+      </c>
+      <c r="BJ6">
+        <v>150010</v>
+      </c>
+      <c r="BK6">
+        <v>153760</v>
+      </c>
+      <c r="BL6">
+        <v>157604</v>
+      </c>
+      <c r="BM6">
+        <v>161545</v>
+      </c>
+      <c r="BN6">
+        <v>165583</v>
+      </c>
+      <c r="BO6">
+        <v>169723</v>
+      </c>
+      <c r="BP6">
+        <v>173966</v>
+      </c>
+      <c r="BQ6">
+        <v>178315</v>
+      </c>
+      <c r="BR6">
+        <v>182773</v>
+      </c>
+      <c r="BS6">
+        <v>187342</v>
+      </c>
+      <c r="BT6">
+        <v>192026</v>
+      </c>
+      <c r="BU6">
+        <v>196826</v>
+      </c>
+      <c r="BV6">
+        <v>201747</v>
+      </c>
+      <c r="BW6">
+        <v>206791</v>
+      </c>
+      <c r="BX6">
+        <v>211960</v>
+      </c>
+      <c r="BY6">
+        <v>217259</v>
+      </c>
+      <c r="BZ6">
+        <v>222691</v>
+      </c>
+      <c r="CA6">
+        <v>228258</v>
+      </c>
+      <c r="CB6">
+        <v>233965</v>
+      </c>
+      <c r="CC6">
+        <v>239814</v>
+      </c>
+      <c r="CD6">
+        <v>245809</v>
+      </c>
+      <c r="CE6">
+        <v>251954</v>
+      </c>
+      <c r="CF6">
+        <v>258253</v>
+      </c>
+      <c r="CG6">
+        <v>264709</v>
+      </c>
+      <c r="CH6">
+        <v>271327</v>
+      </c>
+      <c r="CI6">
+        <v>278110</v>
+      </c>
+      <c r="CJ6">
+        <v>285063</v>
+      </c>
+      <c r="CK6">
+        <v>292190</v>
+      </c>
+      <c r="CL6">
+        <v>299494</v>
+      </c>
+      <c r="CM6">
+        <v>306982</v>
+      </c>
+      <c r="CN6">
+        <v>314656</v>
+      </c>
+      <c r="CO6">
+        <v>322523</v>
+      </c>
+      <c r="CP6">
+        <v>330586</v>
+      </c>
+      <c r="CQ6">
+        <v>338851</v>
+      </c>
+      <c r="CR6">
+        <v>347322</v>
+      </c>
+      <c r="CS6">
+        <v>356005</v>
+      </c>
+      <c r="CT6">
+        <v>364905</v>
+      </c>
+      <c r="CU6">
+        <v>374028</v>
+      </c>
+      <c r="CV6">
+        <v>383378</v>
+      </c>
+      <c r="CW6">
+        <v>392963</v>
+      </c>
+      <c r="CX6">
+        <v>402787</v>
+      </c>
+      <c r="CY6">
+        <v>412856</v>
+      </c>
+      <c r="CZ6">
+        <v>423178</v>
+      </c>
+      <c r="DA6">
+        <v>433757</v>
+      </c>
+      <c r="DB6">
+        <v>444601</v>
+      </c>
+      <c r="DC6">
+        <v>455716</v>
+      </c>
+      <c r="DD6">
+        <v>467109</v>
+      </c>
+      <c r="DE6">
+        <v>478787</v>
+      </c>
+      <c r="DF6">
+        <v>490757</v>
+      </c>
+      <c r="DG6">
+        <v>503025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3900</v>
+      </c>
+      <c r="J7">
+        <v>3997</v>
+      </c>
+      <c r="K7">
+        <v>4097</v>
+      </c>
+      <c r="L7">
+        <v>4200</v>
+      </c>
+      <c r="M7">
+        <v>4305</v>
+      </c>
+      <c r="N7">
+        <v>4412</v>
+      </c>
+      <c r="O7">
+        <v>4522</v>
+      </c>
+      <c r="P7">
+        <v>4636</v>
+      </c>
+      <c r="Q7">
+        <v>4751</v>
+      </c>
+      <c r="R7">
+        <v>4870</v>
+      </c>
+      <c r="S7">
+        <v>4992</v>
+      </c>
+      <c r="T7">
+        <v>6383</v>
+      </c>
+      <c r="U7">
+        <v>6543</v>
+      </c>
+      <c r="V7">
+        <v>6706</v>
+      </c>
+      <c r="W7">
+        <v>6874</v>
+      </c>
+      <c r="X7">
+        <v>7046</v>
+      </c>
+      <c r="Y7">
+        <v>7222</v>
+      </c>
+      <c r="Z7">
+        <v>7402</v>
+      </c>
+      <c r="AA7">
+        <v>7587</v>
+      </c>
+      <c r="AB7">
+        <v>7777</v>
+      </c>
+      <c r="AC7">
+        <v>7972</v>
+      </c>
+      <c r="AD7">
+        <v>8171</v>
+      </c>
+      <c r="AE7">
+        <v>8375</v>
+      </c>
+      <c r="AF7">
+        <v>8585</v>
+      </c>
+      <c r="AG7">
+        <v>8799</v>
+      </c>
+      <c r="AH7">
+        <v>10356</v>
+      </c>
+      <c r="AI7">
+        <v>10615</v>
+      </c>
+      <c r="AJ7">
+        <v>10880</v>
+      </c>
+      <c r="AK7">
+        <v>11152</v>
+      </c>
+      <c r="AL7">
+        <v>11431</v>
+      </c>
+      <c r="AM7">
+        <v>11717</v>
+      </c>
+      <c r="AN7">
+        <v>12010</v>
+      </c>
+      <c r="AO7">
+        <v>12310</v>
+      </c>
+      <c r="AP7">
+        <v>12618</v>
+      </c>
+      <c r="AQ7">
+        <v>12933</v>
+      </c>
+      <c r="AR7">
+        <v>13256</v>
+      </c>
+      <c r="AS7">
+        <v>13588</v>
+      </c>
+      <c r="AT7">
+        <v>13927</v>
+      </c>
+      <c r="AU7">
+        <v>14276</v>
+      </c>
+      <c r="AV7">
+        <v>14632</v>
+      </c>
+      <c r="AW7">
+        <v>14998</v>
+      </c>
+      <c r="AX7">
+        <v>15373</v>
+      </c>
+      <c r="AY7">
+        <v>15758</v>
+      </c>
+      <c r="AZ7">
+        <v>16152</v>
+      </c>
+      <c r="BA7">
+        <v>16555</v>
+      </c>
+      <c r="BB7">
+        <v>16969</v>
+      </c>
+      <c r="BC7">
+        <v>17393</v>
+      </c>
+      <c r="BD7">
+        <v>17828</v>
+      </c>
+      <c r="BE7">
+        <v>18274</v>
+      </c>
+      <c r="BF7">
+        <v>18731</v>
+      </c>
+      <c r="BG7">
+        <v>19199</v>
+      </c>
+      <c r="BH7">
+        <v>19679</v>
+      </c>
+      <c r="BI7">
+        <v>20171</v>
+      </c>
+      <c r="BJ7">
+        <v>20675</v>
+      </c>
+      <c r="BK7">
+        <v>21192</v>
+      </c>
+      <c r="BL7">
+        <v>21722</v>
+      </c>
+      <c r="BM7">
+        <v>22265</v>
+      </c>
+      <c r="BN7">
+        <v>22822</v>
+      </c>
+      <c r="BO7">
+        <v>23392</v>
+      </c>
+      <c r="BP7">
+        <v>23977</v>
+      </c>
+      <c r="BQ7">
+        <v>24576</v>
+      </c>
+      <c r="BR7">
+        <v>25191</v>
+      </c>
+      <c r="BS7">
+        <v>25821</v>
+      </c>
+      <c r="BT7">
+        <v>26466</v>
+      </c>
+      <c r="BU7">
+        <v>27128</v>
+      </c>
+      <c r="BV7">
+        <v>27806</v>
+      </c>
+      <c r="BW7">
+        <v>28501</v>
+      </c>
+      <c r="BX7">
+        <v>29214</v>
+      </c>
+      <c r="BY7">
+        <v>29944</v>
+      </c>
+      <c r="BZ7">
+        <v>30693</v>
+      </c>
+      <c r="CA7">
+        <v>31460</v>
+      </c>
+      <c r="CB7">
+        <v>32246</v>
+      </c>
+      <c r="CC7">
+        <v>33053</v>
+      </c>
+      <c r="CD7">
+        <v>33879</v>
+      </c>
+      <c r="CE7">
+        <v>34726</v>
+      </c>
+      <c r="CF7">
+        <v>35594</v>
+      </c>
+      <c r="CG7">
+        <v>36484</v>
+      </c>
+      <c r="CH7">
+        <v>37396</v>
+      </c>
+      <c r="CI7">
+        <v>38331</v>
+      </c>
+      <c r="CJ7">
+        <v>39289</v>
+      </c>
+      <c r="CK7">
+        <v>40271</v>
+      </c>
+      <c r="CL7">
+        <v>41278</v>
+      </c>
+      <c r="CM7">
+        <v>42310</v>
+      </c>
+      <c r="CN7">
+        <v>43368</v>
+      </c>
+      <c r="CO7">
+        <v>44452</v>
+      </c>
+      <c r="CP7">
+        <v>45563</v>
+      </c>
+      <c r="CQ7">
+        <v>46702</v>
+      </c>
+      <c r="CR7">
+        <v>47870</v>
+      </c>
+      <c r="CS7">
+        <v>49067</v>
+      </c>
+      <c r="CT7">
+        <v>50293</v>
+      </c>
+      <c r="CU7">
+        <v>51551</v>
+      </c>
+      <c r="CV7">
+        <v>52840</v>
+      </c>
+      <c r="CW7">
+        <v>54161</v>
+      </c>
+      <c r="CX7">
+        <v>55515</v>
+      </c>
+      <c r="CY7">
+        <v>56902</v>
+      </c>
+      <c r="CZ7">
+        <v>58325</v>
+      </c>
+      <c r="DA7">
+        <v>59783</v>
+      </c>
+      <c r="DB7">
+        <v>61278</v>
+      </c>
+      <c r="DC7">
+        <v>62810</v>
+      </c>
+      <c r="DD7">
+        <v>64380</v>
+      </c>
+      <c r="DE7">
+        <v>65989</v>
+      </c>
+      <c r="DF7">
+        <v>67639</v>
+      </c>
+      <c r="DG7">
+        <v>69330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>20457</v>
+      </c>
+      <c r="J8">
+        <v>20968</v>
+      </c>
+      <c r="K8">
+        <v>21493</v>
+      </c>
+      <c r="L8">
+        <v>22030</v>
+      </c>
+      <c r="M8">
+        <v>22581</v>
+      </c>
+      <c r="N8">
+        <v>23145</v>
+      </c>
+      <c r="O8">
+        <v>23724</v>
+      </c>
+      <c r="P8">
+        <v>24317</v>
+      </c>
+      <c r="Q8">
+        <v>24925</v>
+      </c>
+      <c r="R8">
+        <v>25548</v>
+      </c>
+      <c r="S8">
+        <v>26187</v>
+      </c>
+      <c r="T8">
+        <v>26841</v>
+      </c>
+      <c r="U8">
+        <v>27512</v>
+      </c>
+      <c r="V8">
+        <v>28200</v>
+      </c>
+      <c r="W8">
+        <v>28905</v>
+      </c>
+      <c r="X8">
+        <v>29628</v>
+      </c>
+      <c r="Y8">
+        <v>30369</v>
+      </c>
+      <c r="Z8">
+        <v>31128</v>
+      </c>
+      <c r="AA8">
+        <v>31906</v>
+      </c>
+      <c r="AB8">
+        <v>32704</v>
+      </c>
+      <c r="AC8">
+        <v>33521</v>
+      </c>
+      <c r="AD8">
+        <v>34359</v>
+      </c>
+      <c r="AE8">
+        <v>35218</v>
+      </c>
+      <c r="AF8">
+        <v>36099</v>
+      </c>
+      <c r="AG8">
+        <v>37001</v>
+      </c>
+      <c r="AH8">
+        <v>37926</v>
+      </c>
+      <c r="AI8">
+        <v>38874</v>
+      </c>
+      <c r="AJ8">
+        <v>39846</v>
+      </c>
+      <c r="AK8">
+        <v>40842</v>
+      </c>
+      <c r="AL8">
+        <v>41863</v>
+      </c>
+      <c r="AM8">
+        <v>42910</v>
+      </c>
+      <c r="AN8">
+        <v>43983</v>
+      </c>
+      <c r="AO8">
+        <v>45082</v>
+      </c>
+      <c r="AP8">
+        <v>46209</v>
+      </c>
+      <c r="AQ8">
+        <v>47365</v>
+      </c>
+      <c r="AR8">
+        <v>48549</v>
+      </c>
+      <c r="AS8">
+        <v>49762</v>
+      </c>
+      <c r="AT8">
+        <v>51006</v>
+      </c>
+      <c r="AU8">
+        <v>52282</v>
+      </c>
+      <c r="AV8">
+        <v>53589</v>
+      </c>
+      <c r="AW8">
+        <v>54928</v>
+      </c>
+      <c r="AX8">
+        <v>56302</v>
+      </c>
+      <c r="AY8">
+        <v>57709</v>
+      </c>
+      <c r="AZ8">
+        <v>59152</v>
+      </c>
+      <c r="BA8">
+        <v>60631</v>
+      </c>
+      <c r="BB8">
+        <v>62146</v>
+      </c>
+      <c r="BC8">
+        <v>63700</v>
+      </c>
+      <c r="BD8">
+        <v>65293</v>
+      </c>
+      <c r="BE8">
+        <v>66925</v>
+      </c>
+      <c r="BF8">
+        <v>68598</v>
+      </c>
+      <c r="BG8">
+        <v>70313</v>
+      </c>
+      <c r="BH8">
+        <v>72071</v>
+      </c>
+      <c r="BI8">
+        <v>73872</v>
+      </c>
+      <c r="BJ8">
+        <v>75719</v>
+      </c>
+      <c r="BK8">
+        <v>77612</v>
+      </c>
+      <c r="BL8">
+        <v>79553</v>
+      </c>
+      <c r="BM8">
+        <v>81541</v>
+      </c>
+      <c r="BN8">
+        <v>83580</v>
+      </c>
+      <c r="BO8">
+        <v>85669</v>
+      </c>
+      <c r="BP8">
+        <v>87811</v>
+      </c>
+      <c r="BQ8">
+        <v>90006</v>
+      </c>
+      <c r="BR8">
+        <v>92257</v>
+      </c>
+      <c r="BS8">
+        <v>94563</v>
+      </c>
+      <c r="BT8">
+        <v>96927</v>
+      </c>
+      <c r="BU8">
+        <v>99350</v>
+      </c>
+      <c r="BV8">
+        <v>101834</v>
+      </c>
+      <c r="BW8">
+        <v>104380</v>
+      </c>
+      <c r="BX8">
+        <v>106989</v>
+      </c>
+      <c r="BY8">
+        <v>109664</v>
+      </c>
+      <c r="BZ8">
+        <v>112406</v>
+      </c>
+      <c r="CA8">
+        <v>115216</v>
+      </c>
+      <c r="CB8">
+        <v>118096</v>
+      </c>
+      <c r="CC8">
+        <v>121049</v>
+      </c>
+      <c r="CD8">
+        <v>124075</v>
+      </c>
+      <c r="CE8">
+        <v>127177</v>
+      </c>
+      <c r="CF8">
+        <v>130356</v>
+      </c>
+      <c r="CG8">
+        <v>133615</v>
+      </c>
+      <c r="CH8">
+        <v>136955</v>
+      </c>
+      <c r="CI8">
+        <v>140379</v>
+      </c>
+      <c r="CJ8">
+        <v>143889</v>
+      </c>
+      <c r="CK8">
+        <v>147486</v>
+      </c>
+      <c r="CL8">
+        <v>151173</v>
+      </c>
+      <c r="CM8">
+        <v>154953</v>
+      </c>
+      <c r="CN8">
+        <v>158826</v>
+      </c>
+      <c r="CO8">
+        <v>162797</v>
+      </c>
+      <c r="CP8">
+        <v>166867</v>
+      </c>
+      <c r="CQ8">
+        <v>171039</v>
+      </c>
+      <c r="CR8">
+        <v>175315</v>
+      </c>
+      <c r="CS8">
+        <v>179697</v>
+      </c>
+      <c r="CT8">
+        <v>184190</v>
+      </c>
+      <c r="CU8">
+        <v>188795</v>
+      </c>
+      <c r="CV8">
+        <v>193515</v>
+      </c>
+      <c r="CW8">
+        <v>198352</v>
+      </c>
+      <c r="CX8">
+        <v>203311</v>
+      </c>
+      <c r="CY8">
+        <v>208394</v>
+      </c>
+      <c r="CZ8">
+        <v>213604</v>
+      </c>
+      <c r="DA8">
+        <v>218944</v>
+      </c>
+      <c r="DB8">
+        <v>224417</v>
+      </c>
+      <c r="DC8">
+        <v>230028</v>
+      </c>
+      <c r="DD8">
+        <v>235779</v>
+      </c>
+      <c r="DE8">
+        <v>241673</v>
+      </c>
+      <c r="DF8">
+        <v>247715</v>
+      </c>
+      <c r="DG8">
+        <v>253908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>21805</v>
+      </c>
+      <c r="J9">
+        <v>22350</v>
+      </c>
+      <c r="K9">
+        <v>22908</v>
+      </c>
+      <c r="L9">
+        <v>23481</v>
+      </c>
+      <c r="M9">
+        <v>24068</v>
+      </c>
+      <c r="N9">
+        <v>24670</v>
+      </c>
+      <c r="O9">
+        <v>25287</v>
+      </c>
+      <c r="P9">
+        <v>31902</v>
+      </c>
+      <c r="Q9">
+        <v>32699</v>
+      </c>
+      <c r="R9">
+        <v>33517</v>
+      </c>
+      <c r="S9">
+        <v>34354</v>
+      </c>
+      <c r="T9">
+        <v>35213</v>
+      </c>
+      <c r="U9">
+        <v>44500</v>
+      </c>
+      <c r="V9">
+        <v>45613</v>
+      </c>
+      <c r="W9">
+        <v>46753</v>
+      </c>
+      <c r="X9">
+        <v>47922</v>
+      </c>
+      <c r="Y9">
+        <v>49120</v>
+      </c>
+      <c r="Z9">
+        <v>50348</v>
+      </c>
+      <c r="AA9">
+        <v>58570</v>
+      </c>
+      <c r="AB9">
+        <v>60034</v>
+      </c>
+      <c r="AC9">
+        <v>70847</v>
+      </c>
+      <c r="AD9">
+        <v>72618</v>
+      </c>
+      <c r="AE9">
+        <v>74433</v>
+      </c>
+      <c r="AF9">
+        <v>76294</v>
+      </c>
+      <c r="AG9">
+        <v>78202</v>
+      </c>
+      <c r="AH9">
+        <v>80157</v>
+      </c>
+      <c r="AI9">
+        <v>82160</v>
+      </c>
+      <c r="AJ9">
+        <v>84214</v>
+      </c>
+      <c r="AK9">
+        <v>94099</v>
+      </c>
+      <c r="AL9">
+        <v>96452</v>
+      </c>
+      <c r="AM9">
+        <v>98863</v>
+      </c>
+      <c r="AN9">
+        <v>101335</v>
+      </c>
+      <c r="AO9">
+        <v>103868</v>
+      </c>
+      <c r="AP9">
+        <v>106465</v>
+      </c>
+      <c r="AQ9">
+        <v>109126</v>
+      </c>
+      <c r="AR9">
+        <v>111855</v>
+      </c>
+      <c r="AS9">
+        <v>114651</v>
+      </c>
+      <c r="AT9">
+        <v>117517</v>
+      </c>
+      <c r="AU9">
+        <v>120455</v>
+      </c>
+      <c r="AV9">
+        <v>123466</v>
+      </c>
+      <c r="AW9">
+        <v>126553</v>
+      </c>
+      <c r="AX9">
+        <v>129717</v>
+      </c>
+      <c r="AY9">
+        <v>132960</v>
+      </c>
+      <c r="AZ9">
+        <v>136284</v>
+      </c>
+      <c r="BA9">
+        <v>139691</v>
+      </c>
+      <c r="BB9">
+        <v>143183</v>
+      </c>
+      <c r="BC9">
+        <v>146763</v>
+      </c>
+      <c r="BD9">
+        <v>150432</v>
+      </c>
+      <c r="BE9">
+        <v>154193</v>
+      </c>
+      <c r="BF9">
+        <v>158048</v>
+      </c>
+      <c r="BG9">
+        <v>161999</v>
+      </c>
+      <c r="BH9">
+        <v>166049</v>
+      </c>
+      <c r="BI9">
+        <v>170200</v>
+      </c>
+      <c r="BJ9">
+        <v>174455</v>
+      </c>
+      <c r="BK9">
+        <v>178816</v>
+      </c>
+      <c r="BL9">
+        <v>183287</v>
+      </c>
+      <c r="BM9">
+        <v>187869</v>
+      </c>
+      <c r="BN9">
+        <v>192566</v>
+      </c>
+      <c r="BO9">
+        <v>197380</v>
+      </c>
+      <c r="BP9">
+        <v>202314</v>
+      </c>
+      <c r="BQ9">
+        <v>207372</v>
+      </c>
+      <c r="BR9">
+        <v>212556</v>
+      </c>
+      <c r="BS9">
+        <v>217870</v>
+      </c>
+      <c r="BT9">
+        <v>223317</v>
+      </c>
+      <c r="BU9">
+        <v>228900</v>
+      </c>
+      <c r="BV9">
+        <v>234622</v>
+      </c>
+      <c r="BW9">
+        <v>240488</v>
+      </c>
+      <c r="BX9">
+        <v>246500</v>
+      </c>
+      <c r="BY9">
+        <v>252663</v>
+      </c>
+      <c r="BZ9">
+        <v>258979</v>
+      </c>
+      <c r="CA9">
+        <v>265454</v>
+      </c>
+      <c r="CB9">
+        <v>272090</v>
+      </c>
+      <c r="CC9">
+        <v>278892</v>
+      </c>
+      <c r="CD9">
+        <v>285865</v>
+      </c>
+      <c r="CE9">
+        <v>293011</v>
+      </c>
+      <c r="CF9">
+        <v>300337</v>
+      </c>
+      <c r="CG9">
+        <v>307845</v>
+      </c>
+      <c r="CH9">
+        <v>315541</v>
+      </c>
+      <c r="CI9">
+        <v>323430</v>
+      </c>
+      <c r="CJ9">
+        <v>331515</v>
+      </c>
+      <c r="CK9">
+        <v>339803</v>
+      </c>
+      <c r="CL9">
+        <v>348298</v>
+      </c>
+      <c r="CM9">
+        <v>357006</v>
+      </c>
+      <c r="CN9">
+        <v>365931</v>
+      </c>
+      <c r="CO9">
+        <v>375079</v>
+      </c>
+      <c r="CP9">
+        <v>384456</v>
+      </c>
+      <c r="CQ9">
+        <v>394068</v>
+      </c>
+      <c r="CR9">
+        <v>403919</v>
+      </c>
+      <c r="CS9">
+        <v>414017</v>
+      </c>
+      <c r="CT9">
+        <v>424368</v>
+      </c>
+      <c r="CU9">
+        <v>434977</v>
+      </c>
+      <c r="CV9">
+        <v>445851</v>
+      </c>
+      <c r="CW9">
+        <v>456998</v>
+      </c>
+      <c r="CX9">
+        <v>468422</v>
+      </c>
+      <c r="CY9">
+        <v>480133</v>
+      </c>
+      <c r="CZ9">
+        <v>492136</v>
+      </c>
+      <c r="DA9">
+        <v>504440</v>
+      </c>
+      <c r="DB9">
+        <v>517051</v>
+      </c>
+      <c r="DC9">
+        <v>529977</v>
+      </c>
+      <c r="DD9">
+        <v>543226</v>
+      </c>
+      <c r="DE9">
+        <v>556807</v>
+      </c>
+      <c r="DF9">
+        <v>570727</v>
+      </c>
+      <c r="DG9">
+        <v>584996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>79669</v>
+      </c>
+      <c r="J10">
+        <v>86520</v>
+      </c>
+      <c r="K10">
+        <v>93220</v>
+      </c>
+      <c r="L10">
+        <v>100481</v>
+      </c>
+      <c r="M10">
+        <v>110986</v>
+      </c>
+      <c r="N10">
+        <v>119143</v>
+      </c>
+      <c r="O10">
+        <v>129031</v>
+      </c>
+      <c r="P10">
+        <v>137854</v>
+      </c>
+      <c r="Q10">
+        <v>147294</v>
+      </c>
+      <c r="R10">
+        <v>157404</v>
+      </c>
+      <c r="S10">
+        <v>168218</v>
+      </c>
+      <c r="T10">
+        <v>181903</v>
+      </c>
+      <c r="U10">
+        <v>194443</v>
+      </c>
+      <c r="V10">
+        <v>206869</v>
+      </c>
+      <c r="W10">
+        <v>220138</v>
+      </c>
+      <c r="X10">
+        <v>233190</v>
+      </c>
+      <c r="Y10">
+        <v>247985</v>
+      </c>
+      <c r="Z10">
+        <v>262708</v>
+      </c>
+      <c r="AA10">
+        <v>277683</v>
+      </c>
+      <c r="AB10">
+        <v>293502</v>
+      </c>
+      <c r="AC10">
+        <v>310230</v>
+      </c>
+      <c r="AD10">
+        <v>329003</v>
+      </c>
+      <c r="AE10">
+        <v>347765</v>
+      </c>
+      <c r="AF10">
+        <v>367633</v>
+      </c>
+      <c r="AG10">
+        <v>388658</v>
+      </c>
+      <c r="AH10">
+        <v>409000</v>
+      </c>
+      <c r="AI10">
+        <v>431751</v>
+      </c>
+      <c r="AJ10">
+        <v>454372</v>
+      </c>
+      <c r="AK10">
+        <v>478179</v>
+      </c>
+      <c r="AL10">
+        <v>503224</v>
+      </c>
+      <c r="AM10">
+        <v>529869</v>
+      </c>
+      <c r="AN10">
+        <v>543116</v>
+      </c>
+      <c r="AO10">
+        <v>556694</v>
+      </c>
+      <c r="AP10">
+        <v>570611</v>
+      </c>
+      <c r="AQ10">
+        <v>584877</v>
+      </c>
+      <c r="AR10">
+        <v>599499</v>
+      </c>
+      <c r="AS10">
+        <v>614486</v>
+      </c>
+      <c r="AT10">
+        <v>629848</v>
+      </c>
+      <c r="AU10">
+        <v>645594</v>
+      </c>
+      <c r="AV10">
+        <v>661734</v>
+      </c>
+      <c r="AW10">
+        <v>678278</v>
+      </c>
+      <c r="AX10">
+        <v>695235</v>
+      </c>
+      <c r="AY10">
+        <v>712615</v>
+      </c>
+      <c r="AZ10">
+        <v>730431</v>
+      </c>
+      <c r="BA10">
+        <v>748692</v>
+      </c>
+      <c r="BB10">
+        <v>767409</v>
+      </c>
+      <c r="BC10">
+        <v>786594</v>
+      </c>
+      <c r="BD10">
+        <v>806259</v>
+      </c>
+      <c r="BE10">
+        <v>826415</v>
+      </c>
+      <c r="BF10">
+        <v>847076</v>
+      </c>
+      <c r="BG10">
+        <v>868253</v>
+      </c>
+      <c r="BH10">
+        <v>889959</v>
+      </c>
+      <c r="BI10">
+        <v>912208</v>
+      </c>
+      <c r="BJ10">
+        <v>935013</v>
+      </c>
+      <c r="BK10">
+        <v>958389</v>
+      </c>
+      <c r="BL10">
+        <v>982348</v>
+      </c>
+      <c r="BM10">
+        <v>1006907</v>
+      </c>
+      <c r="BN10">
+        <v>1032080</v>
+      </c>
+      <c r="BO10">
+        <v>1057882</v>
+      </c>
+      <c r="BP10">
+        <v>1084329</v>
+      </c>
+      <c r="BQ10">
+        <v>1111437</v>
+      </c>
+      <c r="BR10">
+        <v>1139223</v>
+      </c>
+      <c r="BS10">
+        <v>1167703</v>
+      </c>
+      <c r="BT10">
+        <v>1196896</v>
+      </c>
+      <c r="BU10">
+        <v>1226818</v>
+      </c>
+      <c r="BV10">
+        <v>1257489</v>
+      </c>
+      <c r="BW10">
+        <v>1288926</v>
+      </c>
+      <c r="BX10">
+        <v>1321149</v>
+      </c>
+      <c r="BY10">
+        <v>1354178</v>
+      </c>
+      <c r="BZ10">
+        <v>1388032</v>
+      </c>
+      <c r="CA10">
+        <v>1422733</v>
+      </c>
+      <c r="CB10">
+        <v>1458302</v>
+      </c>
+      <c r="CC10">
+        <v>1494759</v>
+      </c>
+      <c r="CD10">
+        <v>1532128</v>
+      </c>
+      <c r="CE10">
+        <v>1570431</v>
+      </c>
+      <c r="CF10">
+        <v>1609692</v>
+      </c>
+      <c r="CG10">
+        <v>1649934</v>
+      </c>
+      <c r="CH10">
+        <v>1691183</v>
+      </c>
+      <c r="CI10">
+        <v>1733462</v>
+      </c>
+      <c r="CJ10">
+        <v>1776799</v>
+      </c>
+      <c r="CK10">
+        <v>1821219</v>
+      </c>
+      <c r="CL10">
+        <v>1866749</v>
+      </c>
+      <c r="CM10">
+        <v>1913418</v>
+      </c>
+      <c r="CN10">
+        <v>1961254</v>
+      </c>
+      <c r="CO10">
+        <v>2010285</v>
+      </c>
+      <c r="CP10">
+        <v>2060542</v>
+      </c>
+      <c r="CQ10">
+        <v>2112056</v>
+      </c>
+      <c r="CR10">
+        <v>2164857</v>
+      </c>
+      <c r="CS10">
+        <v>2218978</v>
+      </c>
+      <c r="CT10">
+        <v>2274453</v>
+      </c>
+      <c r="CU10">
+        <v>2331314</v>
+      </c>
+      <c r="CV10">
+        <v>2389597</v>
+      </c>
+      <c r="CW10">
+        <v>2449337</v>
+      </c>
+      <c r="CX10">
+        <v>2510570</v>
+      </c>
+      <c r="CY10">
+        <v>2573335</v>
+      </c>
+      <c r="CZ10">
+        <v>2637668</v>
+      </c>
+      <c r="DA10">
+        <v>2703610</v>
+      </c>
+      <c r="DB10">
+        <v>2771200</v>
+      </c>
+      <c r="DC10">
+        <v>2840480</v>
+      </c>
+      <c r="DD10">
+        <v>2911492</v>
+      </c>
+      <c r="DE10">
+        <v>2984279</v>
+      </c>
+      <c r="DF10">
+        <v>3058886</v>
+      </c>
+      <c r="DG10">
+        <v>3135358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>26529</v>
+      </c>
+      <c r="J11">
+        <v>27192</v>
+      </c>
+      <c r="K11">
+        <v>27872</v>
+      </c>
+      <c r="L11">
+        <v>28569</v>
+      </c>
+      <c r="M11">
+        <v>29283</v>
+      </c>
+      <c r="N11">
+        <v>30015</v>
+      </c>
+      <c r="O11">
+        <v>30766</v>
+      </c>
+      <c r="P11">
+        <v>38811</v>
+      </c>
+      <c r="Q11">
+        <v>39781</v>
+      </c>
+      <c r="R11">
+        <v>40775</v>
+      </c>
+      <c r="S11">
+        <v>41795</v>
+      </c>
+      <c r="T11">
+        <v>42840</v>
+      </c>
+      <c r="U11">
+        <v>54130</v>
+      </c>
+      <c r="V11">
+        <v>55483</v>
+      </c>
+      <c r="W11">
+        <v>56870</v>
+      </c>
+      <c r="X11">
+        <v>58292</v>
+      </c>
+      <c r="Y11">
+        <v>59749</v>
+      </c>
+      <c r="Z11">
+        <v>61243</v>
+      </c>
+      <c r="AA11">
+        <v>71231</v>
+      </c>
+      <c r="AB11">
+        <v>73012</v>
+      </c>
+      <c r="AC11">
+        <v>86144</v>
+      </c>
+      <c r="AD11">
+        <v>88298</v>
+      </c>
+      <c r="AE11">
+        <v>90505</v>
+      </c>
+      <c r="AF11">
+        <v>92768</v>
+      </c>
+      <c r="AG11">
+        <v>95087</v>
+      </c>
+      <c r="AH11">
+        <v>97464</v>
+      </c>
+      <c r="AI11">
+        <v>99901</v>
+      </c>
+      <c r="AJ11">
+        <v>102398</v>
+      </c>
+      <c r="AK11">
+        <v>114358</v>
+      </c>
+      <c r="AL11">
+        <v>117217</v>
+      </c>
+      <c r="AM11">
+        <v>120148</v>
+      </c>
+      <c r="AN11">
+        <v>123151</v>
+      </c>
+      <c r="AO11">
+        <v>126230</v>
+      </c>
+      <c r="AP11">
+        <v>129386</v>
+      </c>
+      <c r="AQ11">
+        <v>132621</v>
+      </c>
+      <c r="AR11">
+        <v>135936</v>
+      </c>
+      <c r="AS11">
+        <v>139335</v>
+      </c>
+      <c r="AT11">
+        <v>142818</v>
+      </c>
+      <c r="AU11">
+        <v>146388</v>
+      </c>
+      <c r="AV11">
+        <v>150048</v>
+      </c>
+      <c r="AW11">
+        <v>153799</v>
+      </c>
+      <c r="AX11">
+        <v>157644</v>
+      </c>
+      <c r="AY11">
+        <v>161585</v>
+      </c>
+      <c r="AZ11">
+        <v>165625</v>
+      </c>
+      <c r="BA11">
+        <v>169766</v>
+      </c>
+      <c r="BB11">
+        <v>174010</v>
+      </c>
+      <c r="BC11">
+        <v>178360</v>
+      </c>
+      <c r="BD11">
+        <v>182819</v>
+      </c>
+      <c r="BE11">
+        <v>187390</v>
+      </c>
+      <c r="BF11">
+        <v>192074</v>
+      </c>
+      <c r="BG11">
+        <v>196876</v>
+      </c>
+      <c r="BH11">
+        <v>201798</v>
+      </c>
+      <c r="BI11">
+        <v>206843</v>
+      </c>
+      <c r="BJ11">
+        <v>212014</v>
+      </c>
+      <c r="BK11">
+        <v>217314</v>
+      </c>
+      <c r="BL11">
+        <v>222747</v>
+      </c>
+      <c r="BM11">
+        <v>228316</v>
+      </c>
+      <c r="BN11">
+        <v>234024</v>
+      </c>
+      <c r="BO11">
+        <v>239874</v>
+      </c>
+      <c r="BP11">
+        <v>245871</v>
+      </c>
+      <c r="BQ11">
+        <v>252018</v>
+      </c>
+      <c r="BR11">
+        <v>258319</v>
+      </c>
+      <c r="BS11">
+        <v>264777</v>
+      </c>
+      <c r="BT11">
+        <v>271396</v>
+      </c>
+      <c r="BU11">
+        <v>278181</v>
+      </c>
+      <c r="BV11">
+        <v>285135</v>
+      </c>
+      <c r="BW11">
+        <v>292264</v>
+      </c>
+      <c r="BX11">
+        <v>299570</v>
+      </c>
+      <c r="BY11">
+        <v>307060</v>
+      </c>
+      <c r="BZ11">
+        <v>314736</v>
+      </c>
+      <c r="CA11">
+        <v>322604</v>
+      </c>
+      <c r="CB11">
+        <v>330670</v>
+      </c>
+      <c r="CC11">
+        <v>338936</v>
+      </c>
+      <c r="CD11">
+        <v>347410</v>
+      </c>
+      <c r="CE11">
+        <v>356095</v>
+      </c>
+      <c r="CF11">
+        <v>364997</v>
+      </c>
+      <c r="CG11">
+        <v>374122</v>
+      </c>
+      <c r="CH11">
+        <v>383475</v>
+      </c>
+      <c r="CI11">
+        <v>393062</v>
+      </c>
+      <c r="CJ11">
+        <v>402889</v>
+      </c>
+      <c r="CK11">
+        <v>412961</v>
+      </c>
+      <c r="CL11">
+        <v>423285</v>
+      </c>
+      <c r="CM11">
+        <v>433867</v>
+      </c>
+      <c r="CN11">
+        <v>444714</v>
+      </c>
+      <c r="CO11">
+        <v>455832</v>
+      </c>
+      <c r="CP11">
+        <v>467227</v>
+      </c>
+      <c r="CQ11">
+        <v>478908</v>
+      </c>
+      <c r="CR11">
+        <v>490881</v>
+      </c>
+      <c r="CS11">
+        <v>503153</v>
+      </c>
+      <c r="CT11">
+        <v>515732</v>
+      </c>
+      <c r="CU11">
+        <v>528625</v>
+      </c>
+      <c r="CV11">
+        <v>541841</v>
+      </c>
+      <c r="CW11">
+        <v>555387</v>
+      </c>
+      <c r="CX11">
+        <v>569271</v>
+      </c>
+      <c r="CY11">
+        <v>583503</v>
+      </c>
+      <c r="CZ11">
+        <v>598091</v>
+      </c>
+      <c r="DA11">
+        <v>613043</v>
+      </c>
+      <c r="DB11">
+        <v>628369</v>
+      </c>
+      <c r="DC11">
+        <v>644078</v>
+      </c>
+      <c r="DD11">
+        <v>660180</v>
+      </c>
+      <c r="DE11">
+        <v>676685</v>
+      </c>
+      <c r="DF11">
+        <v>693602</v>
+      </c>
+      <c r="DG11">
+        <v>710942</v>
       </c>
     </row>
   </sheetData>
@@ -1688,10 +4157,10 @@
   <sheetData>
     <row r="1" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>2012</v>
@@ -2023,10 +4492,10 @@
     </row>
     <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2358,10 +4827,10 @@
     </row>
     <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2693,10 +5162,10 @@
     </row>
     <row r="4" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3028,10 +5497,10 @@
     </row>
     <row r="5" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3363,10 +5832,10 @@
     </row>
     <row r="6" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3698,10 +6167,10 @@
     </row>
     <row r="7" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4033,10 +6502,10 @@
     </row>
     <row r="8" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4368,10 +6837,10 @@
     </row>
     <row r="9" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4703,10 +7172,10 @@
     </row>
     <row r="10" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5038,10 +7507,10 @@
     </row>
     <row r="11" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5373,10 +7842,10 @@
     </row>
     <row r="12" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5708,10 +8177,10 @@
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6043,10 +8512,10 @@
     </row>
     <row r="14" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6378,10 +8847,10 @@
     </row>
     <row r="15" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6713,10 +9182,10 @@
     </row>
     <row r="16" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -7048,10 +9517,10 @@
     </row>
     <row r="17" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -7383,10 +9852,10 @@
     </row>
     <row r="18" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7733,37 +10202,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
